--- a/Sprint#5/pruebas individuales David/Log_pruebas_individuales_RF-46.xlsx
+++ b/Sprint#5/pruebas individuales David/Log_pruebas_individuales_RF-46.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Oscar\Documents\GitHub\SIGAB\SIGAB\Sprint#5\pruebas individuales Oscar\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\david\OneDrive\Documents\GitHub\SIGAB\Sprint#5\pruebas individuales David\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF4A28A7-E4DB-4ABD-BC45-08A6BCB432DF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RF 34" sheetId="1" r:id="rId1"/>
     <sheet name="Datos de prueba" sheetId="3" r:id="rId2"/>
     <sheet name="Firmas" sheetId="2" r:id="rId3"/>
+    <sheet name="Resultato" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -26,12 +28,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={69A282DF-6FCF-4C4E-9FD9-A5DE37332F75}</author>
   </authors>
   <commentList>
-    <comment ref="A15" authorId="0" shapeId="0">
+    <comment ref="A16" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -53,12 +55,12 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author/>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
       <text>
         <r>
           <rPr>
@@ -73,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
       <text>
         <r>
           <rPr>
@@ -88,7 +90,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
       <text>
         <r>
           <rPr>
@@ -103,7 +105,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
       <text>
         <r>
           <rPr>
@@ -130,7 +132,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
       <text>
         <r>
           <rPr>
@@ -150,7 +152,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
       <text>
         <r>
           <rPr>
@@ -168,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
       <text>
         <r>
           <rPr>
@@ -193,7 +195,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
       <text>
         <r>
           <rPr>
@@ -208,7 +210,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
       <text>
         <r>
           <rPr>
@@ -228,7 +230,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="149">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="151">
   <si>
     <t>Observación</t>
   </si>
@@ -275,22 +277,6 @@
   </si>
   <si>
     <t>X</t>
-  </si>
-  <si>
-    <t>Una consulta sobre el porcentaje de participación del personal (del año en curso) en las diferentes actividades según el tipo.
-Una consulta sobre el porcentaje de participación del personal (del año en curso) en las diferentes actividades según el ámbito (Nacional o Internacional).</t>
-  </si>
-  <si>
-    <t>Realizar la consulta de información de participación de un personal en específico. Para dicha consulta se seguirán los siguientes parámetros:
-Cédula del personal. 
-Rango de fechas. 
-Estado de la actividad.</t>
-  </si>
-  <si>
-    <t>Los gráficos generados por dicha consulta serán los siguientes: 
-Participación en diferentes actividades por tipos. En el gráfico se mostrarán los tipos de actividades y el número de actividades en las que participó en ese rango de fechas y con el estado seleccionado. Este gráfico será de tipo “Gráfico de Dona”. 
-Cantidad de participación por fechas. En el eje “X” se mostrarán los meses y en eje “Y” el número de actividades en las que participó. Este gráfico será de tipo “Gráfico de Área”. 
-Participación en actividades por ámbito. En el eje “X” se mostrarán los siguientes valores: “Internacional”, “Nacional”, y en el eje “Y” se mostrarán el número de actividades en las que participó en ese rango de fechas y con el estado seleccionado. Este gráfico será de tipo “Gráfico de Barras”.</t>
   </si>
   <si>
     <t>Se encuentra en las hoja de datos de prueba</t>
@@ -737,13 +723,32 @@
     <t>Reporte anual del involucramiento del personal</t>
   </si>
   <si>
-    <t>Oscar Alvarado Gutiérrez</t>
+    <t>David Aguilar Rojas</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debe ser posible generar una tabla a través de un rango de años que cuente con el nombre del personal y con la Cantidad de participaciones en actividades según los siguientes tipos: 
+ Órgano colegiado 
+Participación en comisiones 
+Tutorías, lectorías y tribunal de prueba de grado 
+Capacitación </t>
+  </si>
+  <si>
+    <t>La tabla debe contar con un total y un porcentaje según la cantidad de personal que participaron en ese tipo de actividad.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">El resultado de la búsqueda debe asemejarse lo más posible a la tabla mostrada en el anexo 3. </t>
+  </si>
+  <si>
+    <t>El resultado de la búsqueda se debe poder descargar por medio de un documento pdf que siga el formato del anexo 1.</t>
+  </si>
+  <si>
+    <t>El porcentaje del gráfico muestra demasiados decimales.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -998,7 +1003,7 @@
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1033,7 +1038,7 @@
         <xdr:cNvPr id="2" name="Imagen 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" xmlns="" id="{F7E3BDE3-F723-40DB-9011-67A4D41D0A2B}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F7E3BDE3-F723-40DB-9011-67A4D41D0A2B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1072,6 +1077,55 @@
             </a14:hiddenFill>
           </a:ext>
         </a:extLst>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>439594</xdr:colOff>
+      <xdr:row>42</xdr:row>
+      <xdr:rowOff>124959</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Imagen 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA5CF62E-D3E3-4B91-9BE3-5FC301E494F1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="0"/>
+          <a:ext cx="10345594" cy="8125959"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
       </xdr:spPr>
     </xdr:pic>
     <xdr:clientData/>
@@ -1389,11 +1443,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F24"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1458,7 +1512,7 @@
         <v>46</v>
       </c>
       <c r="C5" s="34" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="D5" s="34"/>
       <c r="E5" s="34"/>
@@ -1469,7 +1523,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="C6" s="34"/>
       <c r="D6" s="34"/>
@@ -1505,7 +1559,7 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B10" s="7" t="s">
         <v>12</v>
@@ -1520,9 +1574,9 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:6" ht="102" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:6" ht="115.5" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>15</v>
+        <v>146</v>
       </c>
       <c r="B11" s="14" t="s">
         <v>14</v>
@@ -1531,16 +1585,19 @@
     </row>
     <row r="12" spans="1:6" ht="124.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>16</v>
+        <v>147</v>
       </c>
       <c r="B12" s="14" t="s">
         <v>14</v>
       </c>
       <c r="C12" s="6"/>
-    </row>
-    <row r="13" spans="1:6" ht="239.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="33" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>17</v>
+        <v>148</v>
       </c>
       <c r="B13" s="14" t="s">
         <v>14</v>
@@ -1548,34 +1605,40 @@
       <c r="C13" s="6"/>
       <c r="D13" s="6"/>
     </row>
-    <row r="14" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="1" t="s">
+    <row r="14" spans="1:6" ht="33" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:6" ht="17.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B14" s="11"/>
-      <c r="C14" s="6"/>
-    </row>
-    <row r="15" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A15" s="13" t="s">
-        <v>18</v>
-      </c>
-      <c r="B15" s="6"/>
+      <c r="B15" s="11"/>
       <c r="C15" s="6"/>
-      <c r="D15" s="6"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" ht="16.5" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="6"/>
       <c r="C16" s="6"/>
+      <c r="D16" s="6"/>
     </row>
     <row r="17" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B17" s="11"/>
       <c r="C17" s="6"/>
-      <c r="D17" s="6"/>
-    </row>
-    <row r="18" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B18" s="11"/>
       <c r="C18" s="6"/>
       <c r="D18" s="6"/>
     </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:4" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C19" s="6"/>
       <c r="D19" s="6"/>
     </row>
@@ -1598,6 +1661,10 @@
     <row r="24" spans="2:4" x14ac:dyDescent="0.25">
       <c r="C24" s="6"/>
       <c r="D24" s="6"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C25" s="6"/>
+      <c r="D25" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -1615,7 +1682,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AI6"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -1626,109 +1693,109 @@
   <sheetData>
     <row r="1" spans="1:35" ht="195" x14ac:dyDescent="0.25">
       <c r="A1" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="E1" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="F1" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="G1" s="16" t="s">
         <v>23</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="H1" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="I1" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="J1" s="15" t="s">
         <v>26</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="K1" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="L1" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="M1" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="K1" s="16" t="s">
+      <c r="N1" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="L1" s="15" t="s">
+      <c r="O1" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="M1" s="16" t="s">
+      <c r="P1" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="N1" s="15" t="s">
+      <c r="Q1" s="15" t="s">
         <v>33</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="R1" s="15" t="s">
         <v>34</v>
       </c>
-      <c r="P1" s="15" t="s">
+      <c r="S1" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="Q1" s="15" t="s">
+      <c r="T1" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="R1" s="15" t="s">
+      <c r="U1" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="V1" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="W1" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="X1" s="16" t="s">
         <v>40</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="Y1" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="W1" s="16" t="s">
+      <c r="Z1" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="X1" s="16" t="s">
+      <c r="AA1" s="16" t="s">
         <v>43</v>
       </c>
-      <c r="Y1" s="16" t="s">
+      <c r="AB1" s="16" t="s">
         <v>44</v>
       </c>
-      <c r="Z1" s="16" t="s">
+      <c r="AC1" s="16" t="s">
         <v>45</v>
       </c>
-      <c r="AA1" s="16" t="s">
+      <c r="AD1" s="16" t="s">
         <v>46</v>
       </c>
-      <c r="AB1" s="16" t="s">
+      <c r="AE1" s="16" t="s">
         <v>47</v>
       </c>
-      <c r="AC1" s="16" t="s">
+      <c r="AF1" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="AD1" s="16" t="s">
+      <c r="AG1" s="16" t="s">
         <v>49</v>
       </c>
-      <c r="AE1" s="16" t="s">
+      <c r="AH1" s="16" t="s">
         <v>50</v>
       </c>
-      <c r="AF1" s="16" t="s">
+      <c r="AI1" s="16" t="s">
         <v>51</v>
-      </c>
-      <c r="AG1" s="16" t="s">
-        <v>52</v>
-      </c>
-      <c r="AH1" s="16" t="s">
-        <v>53</v>
-      </c>
-      <c r="AI1" s="16" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
@@ -1736,22 +1803,22 @@
         <v>401500844</v>
       </c>
       <c r="B2" s="17" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C2" s="17" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="D2" s="18">
         <v>25509</v>
       </c>
       <c r="E2" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F2" s="19" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="H2" s="17">
         <v>22372096</v>
@@ -1760,72 +1827,72 @@
         <v>89986757</v>
       </c>
       <c r="J2" s="17" t="s">
+        <v>57</v>
+      </c>
+      <c r="K2" s="20" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M2" s="21" t="s">
         <v>60</v>
       </c>
-      <c r="K2" s="20" t="s">
+      <c r="N2" s="17" t="s">
         <v>61</v>
-      </c>
-      <c r="L2" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="M2" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="N2" s="17" t="s">
-        <v>64</v>
       </c>
       <c r="O2" s="17"/>
       <c r="P2" s="21" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q2" s="17" t="s">
+        <v>63</v>
+      </c>
+      <c r="R2" s="17" t="s">
+        <v>64</v>
+      </c>
+      <c r="S2" s="17" t="s">
         <v>65</v>
-      </c>
-      <c r="Q2" s="17" t="s">
-        <v>66</v>
-      </c>
-      <c r="R2" s="17" t="s">
-        <v>67</v>
-      </c>
-      <c r="S2" s="17" t="s">
-        <v>68</v>
       </c>
       <c r="T2" s="17"/>
       <c r="U2" s="17">
         <v>2019</v>
       </c>
       <c r="V2" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="W2" s="23" t="s">
+        <v>67</v>
+      </c>
+      <c r="X2" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="Y2" s="23" t="s">
         <v>69</v>
       </c>
-      <c r="W2" s="23" t="s">
+      <c r="Z2" s="23" t="s">
         <v>70</v>
       </c>
-      <c r="X2" s="23" t="s">
+      <c r="AA2" s="21" t="s">
         <v>71</v>
       </c>
-      <c r="Y2" s="23" t="s">
+      <c r="AB2" s="21" t="s">
         <v>72</v>
-      </c>
-      <c r="Z2" s="23" t="s">
-        <v>73</v>
-      </c>
-      <c r="AA2" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB2" s="21" t="s">
-        <v>75</v>
       </c>
       <c r="AC2" s="17"/>
       <c r="AD2" s="23" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="AE2" s="23" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="AF2" s="21"/>
       <c r="AG2" s="23" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="AH2" s="17"/>
       <c r="AI2" s="21" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
@@ -1833,92 +1900,92 @@
         <v>107090236</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C3" s="17" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D3" s="18">
         <v>24770</v>
       </c>
       <c r="E3" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="H3" s="17"/>
       <c r="I3" s="17">
         <v>83666946</v>
       </c>
       <c r="J3" s="17" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="K3" s="20" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="L3" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M3" s="21" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="N3" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O3" s="17"/>
       <c r="P3" s="17" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q3" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R3" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="S3" s="21" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="T3" s="17"/>
       <c r="U3" s="17">
         <v>2015</v>
       </c>
       <c r="V3" s="24" t="s">
+        <v>85</v>
+      </c>
+      <c r="W3" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="X3" s="20" t="s">
+        <v>87</v>
+      </c>
+      <c r="Y3" s="20" t="s">
         <v>88</v>
       </c>
-      <c r="W3" s="24" t="s">
+      <c r="Z3" s="20" t="s">
         <v>89</v>
       </c>
-      <c r="X3" s="20" t="s">
+      <c r="AA3" s="21" t="s">
+        <v>71</v>
+      </c>
+      <c r="AB3" s="21" t="s">
         <v>90</v>
       </c>
-      <c r="Y3" s="20" t="s">
+      <c r="AC3" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="Z3" s="20" t="s">
+      <c r="AD3" s="20" t="s">
         <v>92</v>
-      </c>
-      <c r="AA3" s="21" t="s">
-        <v>74</v>
-      </c>
-      <c r="AB3" s="21" t="s">
-        <v>93</v>
-      </c>
-      <c r="AC3" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="AD3" s="20" t="s">
-        <v>95</v>
       </c>
       <c r="AE3" s="25"/>
       <c r="AF3" s="17"/>
       <c r="AG3" s="17"/>
       <c r="AH3" s="17"/>
       <c r="AI3" s="20" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
@@ -1926,22 +1993,22 @@
         <v>204770946</v>
       </c>
       <c r="B4" s="17" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="D4" s="18">
         <v>26273</v>
       </c>
       <c r="E4" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H4" s="17">
         <v>22393615</v>
@@ -1950,70 +2017,70 @@
         <v>83624159</v>
       </c>
       <c r="J4" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K4" s="21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="L4" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M4" s="21" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="N4" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O4" s="17"/>
       <c r="P4" s="21" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="Q4" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R4" s="17" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="S4" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="T4" s="17"/>
       <c r="U4" s="17">
         <v>2016</v>
       </c>
       <c r="V4" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="W4" s="24" t="s">
+        <v>102</v>
+      </c>
+      <c r="X4" s="24" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y4" s="24" t="s">
         <v>104</v>
       </c>
-      <c r="W4" s="24" t="s">
+      <c r="Z4" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="X4" s="24" t="s">
+      <c r="AA4" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="Y4" s="24" t="s">
+      <c r="AB4" s="20" t="s">
         <v>107</v>
       </c>
-      <c r="Z4" s="20" t="s">
+      <c r="AC4" s="20" t="s">
         <v>108</v>
       </c>
-      <c r="AA4" s="21" t="s">
+      <c r="AD4" s="20" t="s">
         <v>109</v>
       </c>
-      <c r="AB4" s="20" t="s">
+      <c r="AE4" s="20" t="s">
         <v>110</v>
-      </c>
-      <c r="AC4" s="20" t="s">
-        <v>111</v>
-      </c>
-      <c r="AD4" s="20" t="s">
-        <v>112</v>
-      </c>
-      <c r="AE4" s="20" t="s">
-        <v>113</v>
       </c>
       <c r="AF4" s="17"/>
       <c r="AG4" s="20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="AH4" s="17"/>
       <c r="AI4" s="17"/>
@@ -2023,22 +2090,22 @@
         <v>110770945</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C5" s="17" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D5" s="18">
         <v>29460</v>
       </c>
       <c r="E5" s="17" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="H5" s="17">
         <v>25624243</v>
@@ -2047,32 +2114,32 @@
         <v>88110706</v>
       </c>
       <c r="J5" s="17" t="s">
+        <v>117</v>
+      </c>
+      <c r="K5" s="21" t="s">
+        <v>118</v>
+      </c>
+      <c r="L5" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="M5" s="21" t="s">
+        <v>119</v>
+      </c>
+      <c r="N5" s="17" t="s">
         <v>120</v>
       </c>
-      <c r="K5" s="21" t="s">
+      <c r="O5" s="21" t="s">
         <v>121</v>
-      </c>
-      <c r="L5" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="M5" s="21" t="s">
-        <v>122</v>
-      </c>
-      <c r="N5" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="O5" s="21" t="s">
-        <v>124</v>
       </c>
       <c r="P5" s="26"/>
       <c r="Q5" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R5" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S5" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T5" s="26"/>
       <c r="U5" s="17">
@@ -2080,37 +2147,37 @@
       </c>
       <c r="V5" s="27"/>
       <c r="W5" s="24" t="s">
+        <v>124</v>
+      </c>
+      <c r="X5" s="24" t="s">
+        <v>125</v>
+      </c>
+      <c r="Y5" s="20" t="s">
+        <v>126</v>
+      </c>
+      <c r="Z5" s="20" t="s">
         <v>127</v>
       </c>
-      <c r="X5" s="24" t="s">
+      <c r="AA5" s="21" t="s">
+        <v>106</v>
+      </c>
+      <c r="AB5" s="21" t="s">
         <v>128</v>
       </c>
-      <c r="Y5" s="20" t="s">
+      <c r="AC5" s="20" t="s">
         <v>129</v>
       </c>
-      <c r="Z5" s="20" t="s">
+      <c r="AD5" s="20" t="s">
         <v>130</v>
       </c>
-      <c r="AA5" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="AB5" s="21" t="s">
+      <c r="AE5" s="20" t="s">
         <v>131</v>
-      </c>
-      <c r="AC5" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="AD5" s="20" t="s">
-        <v>133</v>
-      </c>
-      <c r="AE5" s="20" t="s">
-        <v>134</v>
       </c>
       <c r="AF5" s="26"/>
       <c r="AG5" s="26"/>
       <c r="AH5" s="26"/>
       <c r="AI5" s="23" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="6" spans="1:35" ht="409.5" x14ac:dyDescent="0.25">
@@ -2118,22 +2185,22 @@
         <v>108450068</v>
       </c>
       <c r="B6" s="17" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="C6" s="17" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D6" s="18">
         <v>26685</v>
       </c>
       <c r="E6" s="17" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H6" s="17">
         <v>22628427</v>
@@ -2142,32 +2209,32 @@
         <v>83420020</v>
       </c>
       <c r="J6" s="17" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="K6" s="21" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="L6" s="17" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="M6" s="21" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="N6" s="17" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="O6" s="21" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="P6" s="17"/>
       <c r="Q6" s="17" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="R6" s="17" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="S6" s="17" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="T6" s="17"/>
       <c r="U6" s="17">
@@ -2175,45 +2242,45 @@
       </c>
       <c r="V6" s="28"/>
       <c r="W6" s="29" t="s">
+        <v>138</v>
+      </c>
+      <c r="X6" s="20" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y6" s="20" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z6" s="20" t="s">
         <v>141</v>
       </c>
-      <c r="X6" s="20" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y6" s="20" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z6" s="20" t="s">
-        <v>144</v>
-      </c>
       <c r="AA6" s="21" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="AB6" s="17"/>
       <c r="AC6" s="17"/>
       <c r="AD6" s="20" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="AE6" s="25"/>
       <c r="AF6" s="17"/>
       <c r="AG6" s="17"/>
       <c r="AH6" s="17"/>
       <c r="AI6" s="21" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="F2" r:id="rId1"/>
-    <hyperlink ref="G2" r:id="rId2"/>
-    <hyperlink ref="F3" r:id="rId3"/>
-    <hyperlink ref="G3" r:id="rId4"/>
-    <hyperlink ref="F4" r:id="rId5"/>
-    <hyperlink ref="G4" r:id="rId6"/>
-    <hyperlink ref="F5" r:id="rId7"/>
-    <hyperlink ref="G5" r:id="rId8"/>
-    <hyperlink ref="F6" r:id="rId9"/>
-    <hyperlink ref="G6" r:id="rId10"/>
+    <hyperlink ref="F2" r:id="rId1" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="G2" r:id="rId2" xr:uid="{00000000-0004-0000-0100-000001000000}"/>
+    <hyperlink ref="F3" r:id="rId3" xr:uid="{00000000-0004-0000-0100-000002000000}"/>
+    <hyperlink ref="G3" r:id="rId4" xr:uid="{00000000-0004-0000-0100-000003000000}"/>
+    <hyperlink ref="F4" r:id="rId5" xr:uid="{00000000-0004-0000-0100-000004000000}"/>
+    <hyperlink ref="G4" r:id="rId6" xr:uid="{00000000-0004-0000-0100-000005000000}"/>
+    <hyperlink ref="F5" r:id="rId7" xr:uid="{00000000-0004-0000-0100-000006000000}"/>
+    <hyperlink ref="G5" r:id="rId8" xr:uid="{00000000-0004-0000-0100-000007000000}"/>
+    <hyperlink ref="F6" r:id="rId9" xr:uid="{00000000-0004-0000-0100-000008000000}"/>
+    <hyperlink ref="G6" r:id="rId10" xr:uid="{00000000-0004-0000-0100-000009000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <legacyDrawing r:id="rId11"/>
@@ -2221,7 +2288,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -2231,4 +2298,19 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2F68913F-D831-409C-B069-871DB3820E46}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="Q23" sqref="Q23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>